--- a/Описание VP.xlsx
+++ b/Описание VP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>VP</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Assign 0x0001 to show Battery icon</t>
   </si>
   <si>
-    <t>Assign 0x0001 to show bolloon icon</t>
-  </si>
-  <si>
     <t>minTankTemp</t>
   </si>
   <si>
@@ -151,6 +148,102 @@
   </si>
   <si>
     <t>hvVoltage*abs(hvCurrent) / 1000</t>
+  </si>
+  <si>
+    <t>Assign 0x0001 to show Balloon icon</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>302E</t>
+  </si>
+  <si>
+    <t>303A</t>
+  </si>
+  <si>
+    <t>303C</t>
+  </si>
+  <si>
+    <t>303E</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ValveOpen</t>
+  </si>
+  <si>
+    <t>TankFilling</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>MinTankTemp</t>
+  </si>
+  <si>
+    <t>MaxTankTemp</t>
+  </si>
+  <si>
+    <t>MinTankPrs</t>
+  </si>
+  <si>
+    <t>MaxTankPrs</t>
+  </si>
+  <si>
+    <t>HvVoltage</t>
+  </si>
+  <si>
+    <t>HvCurrent</t>
+  </si>
+  <si>
+    <t>HvDischargePower</t>
+  </si>
+  <si>
+    <t>HvChargePower</t>
+  </si>
+  <si>
+    <t>TmsState</t>
+  </si>
+  <si>
+    <t>Soc</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>minCellVoltage</t>
+  </si>
+  <si>
+    <t>maxCellVoltage</t>
+  </si>
+  <si>
+    <t>MinBatteryTemp</t>
+  </si>
+  <si>
+    <t>MaxBatteryTemp</t>
+  </si>
+  <si>
+    <t>MinCellVoltage</t>
+  </si>
+  <si>
+    <t>MaxCellVoltage</t>
+  </si>
+  <si>
+    <t>FuelCellState</t>
+  </si>
+  <si>
+    <t>FuelCellOutputPower</t>
+  </si>
+  <si>
+    <t>FuelCellTemp</t>
+  </si>
+  <si>
+    <t>HydrogenRate</t>
+  </si>
+  <si>
+    <t>EnergyRate</t>
   </si>
 </sst>
 </file>
@@ -166,15 +259,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,12 +281,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -206,8 +352,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E24" totalsRowShown="0">
-  <autoFilter ref="A1:E24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F52" totalsRowShown="0">
+  <autoFilter ref="A1:F52"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="VP"/>
+    <tableColumn id="2" name="Length"/>
+    <tableColumn id="7" name="Name"/>
+    <tableColumn id="3" name="CAN Message"/>
+    <tableColumn id="5" name="CAN Signal"/>
+    <tableColumn id="6" name="Comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="H1:L24" totalsRowShown="0">
+  <autoFilter ref="H1:L24"/>
   <tableColumns count="5">
     <tableColumn id="1" name="VP"/>
     <tableColumn id="2" name="Length"/>
@@ -482,22 +643,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,279 +666,780 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>3000</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>3002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>3002</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3004</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>3004</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3006</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>3006</v>
+      </c>
+      <c r="L5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>3008</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6">
+        <v>3008</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3010</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>3010</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3012</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="H11">
+        <v>3012</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3012</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3014</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>3014</v>
+      </c>
+      <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3016</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13">
+        <v>3016</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3016</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3018</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
       <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <v>3018</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3020</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>3020</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3020</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3022</v>
       </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
       <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>3022</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3024</v>
       </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>3024</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3026</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
       <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>3026</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3028</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="H22">
+        <v>3028</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>3030</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3032</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3034</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>3036</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3038</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3028</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3040</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Описание VP.xlsx
+++ b/Описание VP.xlsx
@@ -646,7 +646,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C6" sqref="C6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,15 +796,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H6">
         <v>3008</v>
       </c>
@@ -820,13 +818,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="H7" t="s">
         <v>4</v>
       </c>
@@ -1089,14 +1089,13 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -1116,13 +1115,15 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="H18">
         <v>3020</v>
       </c>

--- a/Описание VP.xlsx
+++ b/Описание VP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>VP</t>
   </si>
@@ -99,12 +99,6 @@
     <t>maxBattTemp</t>
   </si>
   <si>
-    <t>minCellTemp</t>
-  </si>
-  <si>
-    <t>maxCellTemp</t>
-  </si>
-  <si>
     <t>hvVoltage</t>
   </si>
   <si>
@@ -244,6 +238,12 @@
   </si>
   <si>
     <t>EnergyRate</t>
+  </si>
+  <si>
+    <t>CanError</t>
+  </si>
+  <si>
+    <t>VCUmsg was not being received for some time</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -334,6 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -358,20 +359,6 @@
     <tableColumn id="1" name="VP"/>
     <tableColumn id="2" name="Length"/>
     <tableColumn id="7" name="Name"/>
-    <tableColumn id="3" name="CAN Message"/>
-    <tableColumn id="5" name="CAN Signal"/>
-    <tableColumn id="6" name="Comment"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="H1:L24" totalsRowShown="0">
-  <autoFilter ref="H1:L24"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="VP"/>
-    <tableColumn id="2" name="Length"/>
     <tableColumn id="3" name="CAN Message"/>
     <tableColumn id="5" name="CAN Signal"/>
     <tableColumn id="6" name="Comment"/>
@@ -643,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,10 +642,10 @@
     <col min="2" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -677,46 +664,24 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>3000</v>
       </c>
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>3000</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>3002</v>
       </c>
@@ -727,19 +692,10 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3">
-        <v>3002</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3004</v>
       </c>
@@ -747,28 +703,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>3004</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3006</v>
       </c>
@@ -779,16 +726,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5">
-        <v>3006</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3008</v>
       </c>
@@ -796,21 +737,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6">
-        <v>3008</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -818,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -827,17 +762,8 @@
         <v>13</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -845,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -853,17 +779,8 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -871,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -879,17 +796,8 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3010</v>
       </c>
@@ -897,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -905,17 +813,8 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="H10">
-        <v>3010</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3012</v>
       </c>
@@ -923,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -932,17 +831,8 @@
         <v>23</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="H11">
-        <v>3012</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3014</v>
       </c>
@@ -950,25 +840,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12">
-        <v>3014</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3016</v>
       </c>
@@ -976,26 +857,17 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="H13">
-        <v>3016</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3018</v>
       </c>
@@ -1003,28 +875,19 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14">
-        <v>3018</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1032,28 +895,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1069,20 +923,8 @@
       <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1090,24 +932,15 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3020</v>
       </c>
@@ -1115,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -1124,20 +957,8 @@
         <v>14</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="H18">
-        <v>3020</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3022</v>
       </c>
@@ -1145,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1153,17 +974,8 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="H19">
-        <v>3022</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3024</v>
       </c>
@@ -1171,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1179,17 +991,8 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="H20">
-        <v>3024</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3026</v>
       </c>
@@ -1197,25 +1000,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21">
-        <v>3026</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3028</v>
       </c>
@@ -1223,26 +1017,17 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="H22">
-        <v>3028</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1253,22 +1038,10 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>8</v>
       </c>
@@ -1279,42 +1052,30 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>3030</v>
       </c>
@@ -1325,10 +1086,10 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3032</v>
       </c>
@@ -1336,16 +1097,16 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -1353,16 +1114,16 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
         <v>32</v>
       </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3036</v>
       </c>
@@ -1373,10 +1134,10 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3038</v>
       </c>
@@ -1384,36 +1145,36 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1421,7 +1182,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1438,9 +1199,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>